--- a/public/storage/excel/34141343.xlsx
+++ b/public/storage/excel/34141343.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
-  <si>
-    <t>LAPORAN KEUANGAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laporan PADA TANGGAL 2023-06-10 20:11:40</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>LAPORAN TUNGGAKAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laporan PADA TANGGAL 2023-06-21 16:34:47</t>
   </si>
   <si>
     <t>Nama Lengkap</t>
@@ -32,16 +32,7 @@
     <t>Pembayaran</t>
   </si>
   <si>
-    <t>Nilai</t>
-  </si>
-  <si>
-    <t>Metode Pembayaran</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Dibuat</t>
+    <t>Tagihan</t>
   </si>
   <si>
     <t>dlh</t>
@@ -50,13 +41,7 @@
     <t>Spp</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Lunas</t>
-  </si>
-  <si>
-    <t>2023-06-10 00:19:39</t>
+    <t>Pembayaran Buku</t>
   </si>
 </sst>
 </file>
@@ -406,21 +391,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:FZ17"/>
+  <dimension ref="A1:FZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="9.10" bestFit="true" style="0"/>
     <col min="53" max="53" width="9.10" bestFit="true" style="0"/>
     <col min="79" max="79" width="9.10" bestFit="true" style="0"/>
@@ -445,18 +427,21 @@
     <col min="108" max="108" width="9.10" bestFit="true" style="0"/>
     <col min="134" max="134" width="9.10" bestFit="true" style="0"/>
     <col min="160" max="160" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
     <col min="31" max="31" width="9.10" bestFit="true" style="0"/>
     <col min="57" max="57" width="9.10" bestFit="true" style="0"/>
     <col min="83" max="83" width="9.10" bestFit="true" style="0"/>
     <col min="109" max="109" width="9.10" bestFit="true" style="0"/>
     <col min="135" max="135" width="9.10" bestFit="true" style="0"/>
     <col min="161" max="161" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
     <col min="32" max="32" width="9.10" bestFit="true" style="0"/>
     <col min="58" max="58" width="9.10" bestFit="true" style="0"/>
     <col min="84" max="84" width="9.10" bestFit="true" style="0"/>
     <col min="110" max="110" width="9.10" bestFit="true" style="0"/>
     <col min="136" max="136" width="9.10" bestFit="true" style="0"/>
     <col min="162" max="162" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
     <col min="33" max="33" width="9.10" bestFit="true" style="0"/>
     <col min="59" max="59" width="9.10" bestFit="true" style="0"/>
     <col min="85" max="85" width="9.10" bestFit="true" style="0"/>
@@ -609,317 +594,65 @@
       </c>
     </row>
     <row r="3" spans="1:182">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:182">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2400000</v>
+      </c>
     </row>
     <row r="5" spans="1:182">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2022</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
-        <v>8</v>
+      <c r="D5">
+        <v>360000</v>
       </c>
     </row>
     <row r="6" spans="1:182">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>30000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:182">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2022</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>30000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:182">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>2022</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>30000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:182">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>2022</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>30000</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:182">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2022</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>30000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:182">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2022</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>30000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:182">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>2022</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>30000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:182">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>2022</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>30000</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:182">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>2022</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>30000</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:182">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>2022</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>30000</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:182">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>2022</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>30000</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:182">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>2022</v>
-      </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>30000</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/storage/excel/34141343.xlsx
+++ b/public/storage/excel/34141343.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>LAPORAN TUNGGAKAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Laporan PADA TANGGAL 2023-06-21 16:34:47</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>LAPORAN KEUANGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Laporan PADA TANGGAL 2023-06-22 16:50:49</t>
   </si>
   <si>
     <t>Nama Lengkap</t>
@@ -32,16 +32,31 @@
     <t>Pembayaran</t>
   </si>
   <si>
-    <t>Tagihan</t>
-  </si>
-  <si>
-    <t>dlh</t>
-  </si>
-  <si>
-    <t>Spp</t>
+    <t>Nilai</t>
+  </si>
+  <si>
+    <t>Metode Pembayaran</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Dibuat</t>
+  </si>
+  <si>
+    <t>Dani Lukman</t>
   </si>
   <si>
     <t>Pembayaran Buku</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Lunas</t>
+  </si>
+  <si>
+    <t>2023-06-19 14:15:42</t>
   </si>
 </sst>
 </file>
@@ -394,7 +409,7 @@
   <dimension ref="A1:FZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -402,7 +417,10 @@
     <col min="1" max="1" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="27" max="27" width="9.10" bestFit="true" style="0"/>
     <col min="53" max="53" width="9.10" bestFit="true" style="0"/>
     <col min="79" max="79" width="9.10" bestFit="true" style="0"/>
@@ -427,21 +445,18 @@
     <col min="108" max="108" width="9.10" bestFit="true" style="0"/>
     <col min="134" max="134" width="9.10" bestFit="true" style="0"/>
     <col min="160" max="160" width="9.10" bestFit="true" style="0"/>
-    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
     <col min="31" max="31" width="9.10" bestFit="true" style="0"/>
     <col min="57" max="57" width="9.10" bestFit="true" style="0"/>
     <col min="83" max="83" width="9.10" bestFit="true" style="0"/>
     <col min="109" max="109" width="9.10" bestFit="true" style="0"/>
     <col min="135" max="135" width="9.10" bestFit="true" style="0"/>
     <col min="161" max="161" width="9.10" bestFit="true" style="0"/>
-    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
     <col min="32" max="32" width="9.10" bestFit="true" style="0"/>
     <col min="58" max="58" width="9.10" bestFit="true" style="0"/>
     <col min="84" max="84" width="9.10" bestFit="true" style="0"/>
     <col min="110" max="110" width="9.10" bestFit="true" style="0"/>
     <col min="136" max="136" width="9.10" bestFit="true" style="0"/>
     <col min="162" max="162" width="9.10" bestFit="true" style="0"/>
-    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
     <col min="33" max="33" width="9.10" bestFit="true" style="0"/>
     <col min="59" max="59" width="9.10" bestFit="true" style="0"/>
     <col min="85" max="85" width="9.10" bestFit="true" style="0"/>
@@ -594,65 +609,64 @@
       </c>
     </row>
     <row r="3" spans="1:182">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:182">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2023</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>2400000</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
     <row r="5" spans="1:182">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>2022</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>360000</v>
+      <c r="G5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:182">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2023</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D6">
-        <v>30000</v>
+        <v>700000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/storage/excel/34141343.xlsx
+++ b/public/storage/excel/34141343.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>LAPORAN KEUANGAN</t>
   </si>
   <si>
-    <t xml:space="preserve"> Laporan PADA TANGGAL 2023-06-22 16:50:49</t>
+    <t xml:space="preserve"> Laporan PADA TANGGAL 2023-06-30 14:39:01</t>
   </si>
   <si>
     <t>Nama Lengkap</t>
@@ -44,10 +44,10 @@
     <t>Dibuat</t>
   </si>
   <si>
-    <t>Dani Lukman</t>
-  </si>
-  <si>
-    <t>Pembayaran Buku</t>
+    <t>danikan</t>
+  </si>
+  <si>
+    <t>Spp</t>
   </si>
   <si>
     <t>Manual</t>
@@ -56,7 +56,10 @@
     <t>Lunas</t>
   </si>
   <si>
-    <t>2023-06-19 14:15:42</t>
+    <t>2023-06-30 10:32:43</t>
+  </si>
+  <si>
+    <t>2023-06-30 14:25:35</t>
   </si>
 </sst>
 </file>
@@ -406,7 +409,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:FZ6"/>
+  <dimension ref="A1:FZ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A3" sqref="A3:G3"/>
@@ -416,7 +419,7 @@
   <cols>
     <col min="1" max="1" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
@@ -609,35 +612,72 @@
       </c>
     </row>
     <row r="3" spans="1:182">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:182">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>200000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:182">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>200000</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:182">
@@ -651,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>700000</v>
+        <v>200000</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -660,7 +700,214 @@
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:182">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>200000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:182">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2023</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>200000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:182">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>200000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:182">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>200000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:182">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>200000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:182">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>2023</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>200000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:182">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2023</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>200000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:182">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>2023</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>200000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:182">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>2023</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>200000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
